--- a/parameter_files/test/sigmas.xlsx
+++ b/parameter_files/test/sigmas.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4efc3e9dc81381f4/Documents/SJV-gen-modeling/parameter_files/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="8_{4086C040-E826-4301-AC05-6166F276BF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D61A3583-D054-4A11-B36C-06E927715EB5}"/>
+  <xr:revisionPtr revIDLastSave="141" documentId="8_{4086C040-E826-4301-AC05-6166F276BF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8BDC1D3-A5FC-410F-B5E3-A12AEAEB2F7F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sigmas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -489,7 +502,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -753,17 +766,6 @@
       <bottom style="medium">
         <color rgb="FFCCCCCC"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -811,7 +813,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -850,15 +852,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -917,6 +910,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1208,7 +1205,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1216,13 +1213,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ37"/>
+  <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1233,7 +1230,7 @@
     <col min="33" max="33" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:36" ht="73" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9"/>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -1369,23 +1366,33 @@
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
+      <c r="X2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>1</v>
+      </c>
       <c r="Z2" s="2"/>
       <c r="AA2">
         <v>2</v>
       </c>
       <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
+      <c r="AC2" s="2">
+        <v>1</v>
+      </c>
       <c r="AD2" s="2">
         <v>2</v>
       </c>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
+      <c r="AG2" s="2">
+        <v>1</v>
+      </c>
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
-      <c r="AJ2" s="3"/>
+      <c r="AJ2" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="17" t="s">
@@ -1589,16 +1596,16 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" s="5"/>
       <c r="O10">
@@ -1616,6 +1623,12 @@
         <v>27</v>
       </c>
       <c r="B11" s="4"/>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1670,6 +1683,9 @@
       <c r="AA14">
         <v>2</v>
       </c>
+      <c r="AG14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="18" t="s">
@@ -1677,16 +1693,16 @@
       </c>
       <c r="B15" s="4"/>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" s="5"/>
       <c r="M15">
@@ -1706,7 +1722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A17" s="19" t="s">
         <v>34</v>
       </c>
@@ -1721,8 +1737,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="20" t="s">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A18" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="1"/>
@@ -1753,8 +1769,8 @@
       <c r="AI18" s="2"/>
       <c r="AJ18" s="3"/>
     </row>
-    <row r="19" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="20" t="s">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="4"/>
@@ -1768,8 +1784,8 @@
       </c>
       <c r="AJ19" s="5"/>
     </row>
-    <row r="20" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="20" t="s">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A20" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="4"/>
@@ -1777,8 +1793,8 @@
       <c r="R20" s="4"/>
       <c r="AJ20" s="5"/>
     </row>
-    <row r="21" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="20" t="s">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A21" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="4"/>
@@ -1792,8 +1808,8 @@
       </c>
       <c r="AJ21" s="5"/>
     </row>
-    <row r="22" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="20" t="s">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A22" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="4"/>
@@ -1813,7 +1829,7 @@
       </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="4"/>
@@ -1826,14 +1842,26 @@
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A24" s="15" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A25" s="21" t="s">
-        <v>13</v>
+      <c r="A25" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="B25" s="4"/>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
       <c r="H25" s="5"/>
       <c r="I25">
         <v>2</v>
@@ -1854,28 +1882,40 @@
       <c r="AJ25" s="5"/>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A26" s="21" t="s">
-        <v>14</v>
+      <c r="A26" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="B26" s="4"/>
       <c r="H26" s="5"/>
       <c r="R26" s="4"/>
       <c r="AJ26" s="5"/>
     </row>
-    <row r="27" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="21" t="s">
-        <v>15</v>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A27" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="B27" s="4"/>
       <c r="H27" s="5"/>
       <c r="R27" s="4"/>
       <c r="AJ27" s="5"/>
     </row>
-    <row r="28" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="20" t="s">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A28" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="4"/>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
       <c r="H28" s="5"/>
       <c r="J28">
         <v>2</v>
@@ -1886,8 +1926,8 @@
       <c r="R28" s="4"/>
       <c r="AJ28" s="5"/>
     </row>
-    <row r="29" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="20" t="s">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A29" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B29" s="4"/>
@@ -1895,8 +1935,8 @@
       <c r="R29" s="4"/>
       <c r="AJ29" s="5"/>
     </row>
-    <row r="30" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="20" t="s">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A30" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B30" s="4"/>
@@ -1904,8 +1944,8 @@
       <c r="R30" s="4"/>
       <c r="AJ30" s="5"/>
     </row>
-    <row r="31" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="20" t="s">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A31" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B31" s="4"/>
@@ -1913,8 +1953,8 @@
       <c r="R31" s="4"/>
       <c r="AJ31" s="5"/>
     </row>
-    <row r="32" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="20" t="s">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A32" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B32" s="4"/>
@@ -1925,8 +1965,8 @@
       </c>
       <c r="AJ32" s="5"/>
     </row>
-    <row r="33" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="20" t="s">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A33" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B33" s="4"/>
@@ -1946,8 +1986,8 @@
       </c>
       <c r="AJ33" s="5"/>
     </row>
-    <row r="34" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="20" t="s">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A34" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B34" s="4"/>
@@ -1961,8 +2001,8 @@
       <c r="R34" s="4"/>
       <c r="AJ34" s="5"/>
     </row>
-    <row r="35" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="20" t="s">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A35" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B35" s="4">
@@ -1977,8 +2017,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:36" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="20" t="s">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A36" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B36" s="6"/>
@@ -2009,9 +2049,6 @@
       </c>
       <c r="AJ36" s="8"/>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A37" s="22"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
